--- a/example/requests.xlsx
+++ b/example/requests.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t xml:space="preserve">2019-02</t>
   </si>
@@ -124,18 +124,21 @@
     <t xml:space="preserve">!N1</t>
   </si>
   <si>
+    <t xml:space="preserve">Crusher</t>
+  </si>
+  <si>
     <t xml:space="preserve">N?</t>
   </si>
   <si>
-    <t xml:space="preserve">Crusher</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pulaski</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">N2?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bashir</t>
   </si>
   <si>
@@ -152,6 +155,75 @@
   </si>
   <si>
     <t xml:space="preserve">Cottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein Nachtdienst (auch kein N1 oder N2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein N1 (auch kein N, aber N2 möglich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein N2 (auch kein N, aber N1 möglich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U,ZA,NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urlaub/Zeitausgleich/Nachtdienstgutstunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freier Tag mit 0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normaler 5/6/7/8h-Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;5,&lt;6,&lt;7,&lt;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6/7/8h oder weniger (also auch X, FT, oder -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB5,FB6,FB7,FB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortbildung 5/6/7/8h (Arbeitszeit ohne Stationspräsenz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein N gewünscht (aber möglich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!N1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wie oben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!N2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachtdienst gewünscht (aber nicht garantiert da es die Planung stark einschränkt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'?' kann für alle obigen Dienstformen verwendet werden, z.B. '7?'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachtdienst fix geplant - nur für Weihnachten o.Ä. vorgesehen</t>
   </si>
 </sst>
 </file>
@@ -166,6 +238,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,6 +321,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +405,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -337,7 +414,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="2" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="2" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="8.48"/>
   </cols>
   <sheetData>
@@ -484,9 +561,7 @@
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -497,18 +572,18 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
@@ -569,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -601,7 +676,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -660,7 +735,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -688,7 +763,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>31</v>
@@ -701,7 +776,7 @@
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="2"/>
@@ -715,7 +790,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -768,7 +843,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -825,7 +900,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -862,7 +937,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -929,7 +1004,331 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/requests.xlsx
+++ b/example/requests.xlsx
@@ -796,10 +796,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
@@ -817,10 +817,10 @@
         <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
